--- a/カード当てゲーム(拡張)/07_振り返り/メトリクス評価.xlsx
+++ b/カード当てゲーム(拡張)/07_振り返り/メトリクス評価.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\-09_-\カード当てゲーム(拡張)\07_振り返り\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A89CF93-275A-4070-BD60-5E652721B70A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D7748-390E-4EDD-86F8-AF974E427832}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{96B18BB8-D4CC-42E3-BD1C-233A87F4DCD8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>NOF</t>
     <phoneticPr fontId="1"/>
@@ -165,7 +165,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
+    <t>カードあてゲーム(第二反復)</t>
+    <rPh sb="9" eb="11">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンプク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードあてゲーム(第三反復)</t>
+    <rPh sb="9" eb="11">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンプク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三目並べ(第一反復)</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>モク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンプク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -570,21 +605,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C00FFB8-5A64-4C5A-8B09-519A5BC3A0F3}">
   <dimension ref="A2:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="24.875" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
@@ -784,31 +824,33 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="L11" s="1" t="s">
         <v>13</v>
       </c>
@@ -835,16 +877,16 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="K12" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,28 +900,28 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
       <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
       <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
         <v>7</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>1</v>
       </c>
@@ -907,28 +949,28 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
         <v>19</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>16</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>21</v>
       </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
       <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
         <v>7</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>9</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="K14" s="1" t="s">
         <v>2</v>
       </c>
@@ -956,28 +998,28 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1005,28 +1047,28 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
       <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>7</v>
       </c>
-      <c r="G16" s="1">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="K16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1054,28 +1096,28 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>0.68</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>0.5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>0.625</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0.75</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
       <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.58299999999999996</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="K17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1108,5 +1150,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>